--- a/data/Data_Provider_norevenue2.xlsx
+++ b/data/Data_Provider_norevenue2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/handeocba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0340A2-1550-1F44-8641-0C7387ECEAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836E4F1E-99E5-0D4B-B753-7E7FDCF10985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35360" yWindow="-120" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -1580,7 +1580,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:F29"/>
+      <selection activeCell="M13" sqref="M13:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2640,7 +2640,7 @@
   <dimension ref="A1:Q120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="M29" sqref="M29:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3762,6 +3762,15 @@
       <c r="L28">
         <v>2022</v>
       </c>
+      <c r="M28">
+        <v>200</v>
+      </c>
+      <c r="N28">
+        <v>200</v>
+      </c>
+      <c r="O28">
+        <v>200</v>
+      </c>
     </row>
     <row r="29" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
@@ -3796,6 +3805,15 @@
       </c>
       <c r="L29">
         <v>2022</v>
+      </c>
+      <c r="M29">
+        <v>200</v>
+      </c>
+      <c r="N29">
+        <v>200</v>
+      </c>
+      <c r="O29">
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -4177,6 +4195,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DEE3DD05F1781645A88261586288E143" ma:contentTypeVersion="8" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="10141bd3b7df6929ac2aab0d38ace983">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84fd47fe-9509-4b60-beed-e31c94bc7d6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="679635ba64e6b0b974d32fba01d99d42" ns2:_="">
     <xsd:import namespace="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
@@ -4348,22 +4381,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F3819C-57C4-4F13-9AF5-6CCD1D9AA3D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6280943-A9F4-43BE-9F92-E31CF54894DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4379,28 +4421,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F3819C-57C4-4F13-9AF5-6CCD1D9AA3D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Data_Provider_norevenue2.xlsx
+++ b/data/Data_Provider_norevenue2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/handeocba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836E4F1E-99E5-0D4B-B753-7E7FDCF10985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A52754-CCF5-8042-94BF-C5BAFCA24118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="122">
   <si>
     <t>company_name</t>
   </si>
@@ -403,12 +403,6 @@
   </si>
   <si>
     <t>Customer Y</t>
-  </si>
-  <si>
-    <t>S1+S2+S3</t>
-  </si>
-  <si>
-    <t>Intensity</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1574,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:M27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2569,8 +2563,8 @@
       <c r="A28" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>120</v>
+      <c r="B28" s="4">
+        <v>1</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>32</v>
@@ -2596,8 +2590,8 @@
       <c r="A29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>121</v>
+      <c r="B29" s="4">
+        <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>32</v>
@@ -2640,7 +2634,7 @@
   <dimension ref="A1:Q120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29:O29"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2742,13 +2736,13 @@
         <v>2020</v>
       </c>
       <c r="M2" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N2" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O2" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -2781,13 +2775,13 @@
         <v>2020</v>
       </c>
       <c r="M3" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N3" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O3" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="10"/>
@@ -2820,13 +2814,13 @@
         <v>2020</v>
       </c>
       <c r="M4" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
@@ -2859,13 +2853,13 @@
         <v>2020</v>
       </c>
       <c r="M5" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N5" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
@@ -2898,13 +2892,13 @@
         <v>2020</v>
       </c>
       <c r="M6" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N6" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O6" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
@@ -2937,13 +2931,13 @@
         <v>2020</v>
       </c>
       <c r="M7" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N7" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O7" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -2976,13 +2970,13 @@
         <v>2020</v>
       </c>
       <c r="M8" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N8" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O8" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -3015,13 +3009,13 @@
         <v>2020</v>
       </c>
       <c r="M9" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N9" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O9" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -3054,13 +3048,13 @@
         <v>2020</v>
       </c>
       <c r="M10" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N10" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O10" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -3093,13 +3087,13 @@
         <v>2020</v>
       </c>
       <c r="M11" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N11" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O11" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -3132,13 +3126,13 @@
         <v>2020</v>
       </c>
       <c r="M12" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N12" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O12" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -3171,13 +3165,13 @@
         <v>2020</v>
       </c>
       <c r="M13" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N13" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O13" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -3210,13 +3204,13 @@
         <v>2020</v>
       </c>
       <c r="M14" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N14" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O14" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
@@ -3249,13 +3243,13 @@
         <v>2020</v>
       </c>
       <c r="M15" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N15" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O15" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
@@ -3288,13 +3282,13 @@
         <v>2020</v>
       </c>
       <c r="M16" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N16" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O16" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -3327,13 +3321,13 @@
         <v>2020</v>
       </c>
       <c r="M17" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N17" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O17" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
@@ -3366,13 +3360,13 @@
         <v>2020</v>
       </c>
       <c r="M18" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N18" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O18" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -3405,13 +3399,13 @@
         <v>2020</v>
       </c>
       <c r="M19" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N19" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O19" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -3444,13 +3438,13 @@
         <v>2020</v>
       </c>
       <c r="M20" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N20" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O20" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
@@ -3483,13 +3477,13 @@
         <v>2020</v>
       </c>
       <c r="M21" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N21" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O21" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -3522,13 +3516,13 @@
         <v>2020</v>
       </c>
       <c r="M22" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N22" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O22" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -3561,13 +3555,13 @@
         <v>2020</v>
       </c>
       <c r="M23" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N23" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O23" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -3600,13 +3594,13 @@
         <v>2020</v>
       </c>
       <c r="M24" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N24" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O24" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
@@ -3639,13 +3633,13 @@
         <v>2020</v>
       </c>
       <c r="M25" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N25" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O25" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -3678,13 +3672,13 @@
         <v>2020</v>
       </c>
       <c r="M26" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N26" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O26" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
@@ -3717,13 +3711,13 @@
         <v>2020</v>
       </c>
       <c r="M27" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N27" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O27" s="9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -3732,14 +3726,14 @@
       <c r="A28" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" t="s">
-        <v>122</v>
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="F28">
         <v>0.9</v>
@@ -3747,9 +3741,6 @@
       <c r="G28">
         <v>0.9</v>
       </c>
-      <c r="H28">
-        <v>0.7</v>
-      </c>
       <c r="I28">
         <v>0.5</v>
       </c>
@@ -3762,28 +3753,28 @@
       <c r="L28">
         <v>2022</v>
       </c>
-      <c r="M28">
-        <v>200</v>
-      </c>
-      <c r="N28">
-        <v>200</v>
-      </c>
-      <c r="O28">
-        <v>200</v>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" t="s">
-        <v>122</v>
+      <c r="B29" s="14">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="F29">
         <v>0.9</v>
@@ -3791,9 +3782,6 @@
       <c r="G29">
         <v>0.9</v>
       </c>
-      <c r="H29">
-        <v>0.7</v>
-      </c>
       <c r="I29">
         <v>0.5</v>
       </c>
@@ -3806,14 +3794,14 @@
       <c r="L29">
         <v>2022</v>
       </c>
-      <c r="M29">
-        <v>200</v>
-      </c>
-      <c r="N29">
-        <v>200</v>
-      </c>
-      <c r="O29">
-        <v>200</v>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -4195,21 +4183,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DEE3DD05F1781645A88261586288E143" ma:contentTypeVersion="8" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="10141bd3b7df6929ac2aab0d38ace983">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84fd47fe-9509-4b60-beed-e31c94bc7d6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="679635ba64e6b0b974d32fba01d99d42" ns2:_="">
     <xsd:import namespace="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
@@ -4381,31 +4354,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F3819C-57C4-4F13-9AF5-6CCD1D9AA3D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6280943-A9F4-43BE-9F92-E31CF54894DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4421,4 +4385,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F3819C-57C4-4F13-9AF5-6CCD1D9AA3D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Data_Provider_norevenue2.xlsx
+++ b/data/Data_Provider_norevenue2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/handeocba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A52754-CCF5-8042-94BF-C5BAFCA24118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCDC8ED-0018-A048-A886-6B83596ABC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2634,7 +2634,7 @@
   <dimension ref="A1:Q120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M2" sqref="M2:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2736,13 +2736,13 @@
         <v>2020</v>
       </c>
       <c r="M2" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N2" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O2" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -2775,13 +2775,13 @@
         <v>2020</v>
       </c>
       <c r="M3" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N3" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O3" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="10"/>
@@ -2814,13 +2814,13 @@
         <v>2020</v>
       </c>
       <c r="M4" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N4" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O4" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
@@ -2853,13 +2853,13 @@
         <v>2020</v>
       </c>
       <c r="M5" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N5" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O5" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
@@ -2892,13 +2892,13 @@
         <v>2020</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N6" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O6" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
@@ -2931,13 +2931,13 @@
         <v>2020</v>
       </c>
       <c r="M7" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N7" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O7" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -2970,13 +2970,13 @@
         <v>2020</v>
       </c>
       <c r="M8" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N8" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O8" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -3009,13 +3009,13 @@
         <v>2020</v>
       </c>
       <c r="M9" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N9" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O9" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -3048,13 +3048,13 @@
         <v>2020</v>
       </c>
       <c r="M10" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N10" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O10" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -3087,13 +3087,13 @@
         <v>2020</v>
       </c>
       <c r="M11" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N11" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O11" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -3126,13 +3126,13 @@
         <v>2020</v>
       </c>
       <c r="M12" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N12" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O12" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -3165,13 +3165,13 @@
         <v>2020</v>
       </c>
       <c r="M13" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N13" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O13" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -3204,13 +3204,13 @@
         <v>2020</v>
       </c>
       <c r="M14" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N14" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O14" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
@@ -3243,13 +3243,13 @@
         <v>2020</v>
       </c>
       <c r="M15" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N15" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O15" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
@@ -3282,13 +3282,13 @@
         <v>2020</v>
       </c>
       <c r="M16" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N16" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O16" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -3321,13 +3321,13 @@
         <v>2020</v>
       </c>
       <c r="M17" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N17" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O17" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
@@ -3360,13 +3360,13 @@
         <v>2020</v>
       </c>
       <c r="M18" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N18" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O18" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -3399,13 +3399,13 @@
         <v>2020</v>
       </c>
       <c r="M19" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N19" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O19" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -3438,13 +3438,13 @@
         <v>2020</v>
       </c>
       <c r="M20" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N20" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O20" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
@@ -3477,13 +3477,13 @@
         <v>2020</v>
       </c>
       <c r="M21" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N21" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O21" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -3516,13 +3516,13 @@
         <v>2020</v>
       </c>
       <c r="M22" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N22" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O22" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -3555,13 +3555,13 @@
         <v>2020</v>
       </c>
       <c r="M23" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N23" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O23" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -3594,13 +3594,13 @@
         <v>2020</v>
       </c>
       <c r="M24" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N24" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O24" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
@@ -3633,13 +3633,13 @@
         <v>2020</v>
       </c>
       <c r="M25" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N25" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O25" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -3672,13 +3672,13 @@
         <v>2020</v>
       </c>
       <c r="M26" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N26" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O26" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
@@ -3711,13 +3711,13 @@
         <v>2020</v>
       </c>
       <c r="M27" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N27" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O27" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -3754,13 +3754,13 @@
         <v>2022</v>
       </c>
       <c r="M28" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N28" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O28" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3795,13 +3795,13 @@
         <v>2022</v>
       </c>
       <c r="M29" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N29" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O29" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -4183,6 +4183,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DEE3DD05F1781645A88261586288E143" ma:contentTypeVersion="8" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="10141bd3b7df6929ac2aab0d38ace983">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84fd47fe-9509-4b60-beed-e31c94bc7d6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="679635ba64e6b0b974d32fba01d99d42" ns2:_="">
     <xsd:import namespace="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
@@ -4354,22 +4369,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F3819C-57C4-4F13-9AF5-6CCD1D9AA3D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6280943-A9F4-43BE-9F92-E31CF54894DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4385,28 +4409,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F3819C-57C4-4F13-9AF5-6CCD1D9AA3D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Data_Provider_norevenue2.xlsx
+++ b/data/Data_Provider_norevenue2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/handeocba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCDC8ED-0018-A048-A886-6B83596ABC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36FB157-EF24-9341-B249-E029DFE31802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="123">
   <si>
     <t>company_name</t>
   </si>
@@ -403,12 +403,18 @@
   </si>
   <si>
     <t>Customer Y</t>
+  </si>
+  <si>
+    <t>S1+S2+S3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -542,6 +548,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2634,7 +2641,7 @@
   <dimension ref="A1:Q120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:O29"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3733,13 +3740,16 @@
         <v>92</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="F28">
         <v>0.9</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="15">
         <v>0.9</v>
+      </c>
+      <c r="H28">
+        <v>0.7</v>
       </c>
       <c r="I28">
         <v>0.5</v>
@@ -3774,13 +3784,16 @@
         <v>92</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="F29">
         <v>0.9</v>
       </c>
       <c r="G29">
         <v>0.9</v>
+      </c>
+      <c r="H29">
+        <v>0.7</v>
       </c>
       <c r="I29">
         <v>0.5</v>
@@ -4189,15 +4202,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DEE3DD05F1781645A88261586288E143" ma:contentTypeVersion="8" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="10141bd3b7df6929ac2aab0d38ace983">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84fd47fe-9509-4b60-beed-e31c94bc7d6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="679635ba64e6b0b974d32fba01d99d42" ns2:_="">
     <xsd:import namespace="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
@@ -4369,6 +4373,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F3819C-57C4-4F13-9AF5-6CCD1D9AA3D5}">
   <ds:schemaRefs>
@@ -4386,14 +4399,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6280943-A9F4-43BE-9F92-E31CF54894DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4409,4 +4414,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Data_Provider_norevenue2.xlsx
+++ b/data/Data_Provider_norevenue2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/handeocba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36FB157-EF24-9341-B249-E029DFE31802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E2A900-B154-D34F-9E89-1828804B0387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="123">
   <si>
     <t>company_name</t>
   </si>
@@ -405,7 +405,7 @@
     <t>Customer Y</t>
   </si>
   <si>
-    <t>S1+S2+S3</t>
+    <t>S3</t>
   </si>
 </sst>
 </file>
@@ -1287,8 +1287,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:Q120" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:Q120" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:Q121" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:Q121" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="company_name" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="company_id" dataDxfId="15"/>
@@ -2638,10 +2638,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:Q120"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3740,7 +3740,7 @@
         <v>92</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F28">
         <v>0.9</v>
@@ -3748,9 +3748,6 @@
       <c r="G28" s="15">
         <v>0.9</v>
       </c>
-      <c r="H28">
-        <v>0.7</v>
-      </c>
       <c r="I28">
         <v>0.5</v>
       </c>
@@ -3769,61 +3766,130 @@
       <c r="N28" s="9">
         <v>200</v>
       </c>
-      <c r="O28" s="9">
-        <v>200</v>
-      </c>
+      <c r="O28" s="9"/>
     </row>
     <row r="29" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="14">
-        <v>2</v>
+      <c r="A29" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>92</v>
       </c>
+      <c r="D29" s="11"/>
       <c r="E29" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="9">
+        <v>2022</v>
+      </c>
+      <c r="K29" s="9">
+        <v>2030</v>
+      </c>
+      <c r="L29" s="9">
+        <v>2022</v>
+      </c>
+      <c r="M29" s="9">
+        <v>200</v>
+      </c>
+      <c r="N29" s="9">
+        <v>200</v>
+      </c>
+      <c r="O29" s="9">
+        <v>200</v>
+      </c>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="9"/>
+    </row>
+    <row r="30" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="14">
+        <v>2</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30">
         <v>0.9</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>0.9</v>
       </c>
-      <c r="H29">
+      <c r="I30">
+        <v>0.5</v>
+      </c>
+      <c r="J30">
+        <v>2022</v>
+      </c>
+      <c r="K30">
+        <v>2030</v>
+      </c>
+      <c r="L30">
+        <v>2022</v>
+      </c>
+      <c r="M30" s="9">
+        <v>200</v>
+      </c>
+      <c r="N30" s="9">
+        <v>200</v>
+      </c>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11">
         <v>0.7</v>
       </c>
-      <c r="I29">
+      <c r="I31" s="11">
         <v>0.5</v>
       </c>
-      <c r="J29">
+      <c r="J31" s="9">
         <v>2022</v>
       </c>
-      <c r="K29">
+      <c r="K31" s="9">
         <v>2030</v>
       </c>
-      <c r="L29">
+      <c r="L31" s="9">
         <v>2022</v>
       </c>
-      <c r="M29" s="9">
-        <v>200</v>
-      </c>
-      <c r="N29" s="9">
-        <v>200</v>
-      </c>
-      <c r="O29" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C30" s="9"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="M31" s="9">
+        <v>200</v>
+      </c>
+      <c r="N31" s="9">
+        <v>200</v>
+      </c>
+      <c r="O31" s="9">
+        <v>200</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C32" s="9"/>
@@ -4180,6 +4246,10 @@
     <row r="120" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C120" s="9"/>
       <c r="E120" s="9"/>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C121" s="9"/>
+      <c r="E121" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4196,9 +4266,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4374,26 +4447,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F3819C-57C4-4F13-9AF5-6CCD1D9AA3D5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4417,9 +4479,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29F3819C-57C4-4F13-9AF5-6CCD1D9AA3D5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/Data_Provider_norevenue2.xlsx
+++ b/data/Data_Provider_norevenue2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/handeocba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E2A900-B154-D34F-9E89-1828804B0387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB93A91-7129-4542-B354-8F78B888087A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9760" yWindow="500" windowWidth="18440" windowHeight="16120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -1580,7 +1580,7 @@
   </sheetPr>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -2640,8 +2640,8 @@
   </sheetPr>
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3749,7 +3749,7 @@
         <v>0.9</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J28">
         <v>2022</v>
@@ -3761,10 +3761,10 @@
         <v>2022</v>
       </c>
       <c r="M28" s="9">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="N28" s="9">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="O28" s="9"/>
     </row>
@@ -3788,7 +3788,7 @@
         <v>0.7</v>
       </c>
       <c r="I29" s="11">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J29" s="9">
         <v>2022</v>
@@ -3800,13 +3800,13 @@
         <v>2022</v>
       </c>
       <c r="M29" s="9">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="N29" s="9">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="O29" s="9">
-        <v>200</v>
+        <v>2100000</v>
       </c>
       <c r="P29" s="11"/>
       <c r="Q29" s="9"/>
@@ -3831,7 +3831,7 @@
         <v>0.9</v>
       </c>
       <c r="I30">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J30">
         <v>2022</v>
@@ -3843,10 +3843,10 @@
         <v>2022</v>
       </c>
       <c r="M30" s="9">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="N30" s="9">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="O30" s="9"/>
     </row>
@@ -3870,7 +3870,7 @@
         <v>0.7</v>
       </c>
       <c r="I31" s="11">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J31" s="9">
         <v>2022</v>
@@ -3882,13 +3882,13 @@
         <v>2022</v>
       </c>
       <c r="M31" s="9">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="N31" s="9">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="O31" s="9">
-        <v>200</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -4266,15 +4266,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DEE3DD05F1781645A88261586288E143" ma:contentTypeVersion="8" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="10141bd3b7df6929ac2aab0d38ace983">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84fd47fe-9509-4b60-beed-e31c94bc7d6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="679635ba64e6b0b974d32fba01d99d42" ns2:_="">
     <xsd:import namespace="84fd47fe-9509-4b60-beed-e31c94bc7d6c"/>
@@ -4446,6 +4437,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4453,14 +4453,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6280943-A9F4-43BE-9F92-E31CF54894DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4474,6 +4466,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEFA7D1-1829-4AA1-B93C-54856ECD839E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/Data_Provider_norevenue2.xlsx
+++ b/data/Data_Provider_norevenue2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/handeocba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB93A91-7129-4542-B354-8F78B888087A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F517A89-6224-9342-86E4-BAC2FA908D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="500" windowWidth="18440" windowHeight="16120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6860" yWindow="3240" windowWidth="18440" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="124">
   <si>
     <t>company_name</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>S3</t>
+  </si>
+  <si>
+    <t>S1+S2+S3</t>
   </si>
 </sst>
 </file>
@@ -449,12 +452,18 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -512,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -549,6 +558,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,8 +1297,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:Q121" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:Q121" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:Q122" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:Q122" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="company_name" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="company_id" dataDxfId="15"/>
@@ -2638,10 +2648,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:Q121"/>
+  <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3768,7 +3778,7 @@
       </c>
       <c r="O28" s="9"/>
     </row>
-    <row r="29" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>120</v>
       </c>
@@ -3787,8 +3797,8 @@
       <c r="H29" s="11">
         <v>0.7</v>
       </c>
-      <c r="I29" s="11">
-        <v>0.3</v>
+      <c r="I29">
+        <v>0.1</v>
       </c>
       <c r="J29" s="9">
         <v>2022</v>
@@ -3812,34 +3822,38 @@
       <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="14">
-        <v>2</v>
+      <c r="A30" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="16">
+        <v>1</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30">
+      <c r="D30" s="9"/>
+      <c r="E30" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="9">
         <v>0.9</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="9">
         <v>0.9</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0.7</v>
       </c>
       <c r="I30">
         <v>0.1</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="9">
         <v>2022</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="9">
         <v>2030</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="9">
         <v>2022</v>
       </c>
       <c r="M30" s="9">
@@ -3848,37 +3862,41 @@
       <c r="N30" s="9">
         <v>200000</v>
       </c>
-      <c r="O30" s="9"/>
+      <c r="O30" s="9">
+        <v>2100000</v>
+      </c>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="14">
         <v>2</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="11"/>
       <c r="E31" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="I31" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="J31" s="9">
+        <v>93</v>
+      </c>
+      <c r="F31">
+        <v>0.9</v>
+      </c>
+      <c r="G31">
+        <v>0.9</v>
+      </c>
+      <c r="I31">
+        <v>0.1</v>
+      </c>
+      <c r="J31">
         <v>2022</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31">
         <v>2030</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31">
         <v>2022</v>
       </c>
       <c r="M31" s="9">
@@ -3887,75 +3905,150 @@
       <c r="N31" s="9">
         <v>200000</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J32" s="9">
+        <v>2022</v>
+      </c>
+      <c r="K32" s="9">
+        <v>2030</v>
+      </c>
+      <c r="L32" s="9">
+        <v>2022</v>
+      </c>
+      <c r="M32" s="9">
+        <v>200000</v>
+      </c>
+      <c r="N32" s="9">
+        <v>200000</v>
+      </c>
+      <c r="O32" s="9">
         <v>2100000</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C32" s="9"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="I33">
+        <v>0.1</v>
+      </c>
+      <c r="J33" s="9">
+        <v>2022</v>
+      </c>
+      <c r="K33" s="9">
+        <v>2030</v>
+      </c>
+      <c r="L33" s="9">
+        <v>2022</v>
+      </c>
+      <c r="M33" s="9">
+        <v>200000</v>
+      </c>
+      <c r="N33" s="9">
+        <v>200000</v>
+      </c>
+      <c r="O33" s="9">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C34" s="9"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C36" s="9"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C37" s="9"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C38" s="9"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C39" s="9"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C40" s="9"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C41" s="9"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C42" s="9"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C43" s="9"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C44" s="9"/>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C45" s="9"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C46" s="9"/>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C47" s="9"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C48" s="9"/>
       <c r="E48" s="9"/>
     </row>
@@ -4250,6 +4343,10 @@
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C121" s="9"/>
       <c r="E121" s="9"/>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C122" s="9"/>
+      <c r="E122" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
